--- a/biology/Zoologie/Caninae/Caninae.xlsx
+++ b/biology/Zoologie/Caninae/Caninae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caniné
 Les Caninés (Caninae) sont la sous-famille dans laquelle sont classées toutes les espèces actuelles
@@ -512,10 +524,12 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'histoire évolutive des carnivores, la famille des Canidés est représentée par les deux sous-familles disparues nommées Hesperocyoninae et Borophaginae, ainsi que la sous-famille existante des Caninae[1]. Cette sous-famille contient tous les canidés vivants et leurs parents éteints les plus récents[2].
-Leurs fossiles ont été trouvés dans les couches géologiques l'Oligocène inférieur d'Amérique du Nord, et les caninés ne se sont pas répandus en Asie avant la fin du Miocène[3],[4],[5],[6], il y a environ 7 à 8 millions d'années[1]. De nombreuses espèces éteintes de caninés étaient endémiques d'Amérique du Nord et y vivaient d'il y a 30,8 millions d'années à 11 000 ans[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'histoire évolutive des carnivores, la famille des Canidés est représentée par les deux sous-familles disparues nommées Hesperocyoninae et Borophaginae, ainsi que la sous-famille existante des Caninae. Cette sous-famille contient tous les canidés vivants et leurs parents éteints les plus récents.
+Leurs fossiles ont été trouvés dans les couches géologiques l'Oligocène inférieur d'Amérique du Nord, et les caninés ne se sont pas répandus en Asie avant la fin du Miocène il y a environ 7 à 8 millions d'années. De nombreuses espèces éteintes de caninés étaient endémiques d'Amérique du Nord et y vivaient d'il y a 30,8 millions d'années à 11 000 ans,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Spécificités morphologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Kathleen Munthe, « les caractéristiques dérivées qui distinguent les caninés des autres canidés comprennent de petites prémolaires simples et bien espacées, un humérus sans foramen entépicondylaire (en) et un métatarsien 1 réduit à un rudiment proximal. »[9],[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Kathleen Munthe, « les caractéristiques dérivées qui distinguent les caninés des autres canidés comprennent de petites prémolaires simples et bien espacées, un humérus sans foramen entépicondylaire (en) et un métatarsien 1 réduit à un rudiment proximal. »,.
 </t>
         </is>
       </c>
@@ -577,8 +593,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste complète des genres et espèces
-tribu Canini Fischer de Waldheim, 1817[11]
+          <t>Liste complète des genres et espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+tribu Canini Fischer de Waldheim, 1817
 sous-tribu Canina (en)
 genre Canis
 Canis anthus (Loup doré)
@@ -598,7 +620,7 @@
 † Canis variabilis
 genre Cuon
 Cuon alpinus (Dhole)
-genre Lupulella[12],[13],[14]
+genre Lupulella
 Lupulella adusta (Chacal à flancs rayés)
 Lupulella mesomelas (Chacal à chabraque)
 genre Lycaon
@@ -690,9 +712,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des espèces actuelle basée d'après Lindblad-Toh (2005)[15] modifiée pour incorporer des découvertes récentes sur les espèces de Canis[16], de Vulpes[17], et de Lycalopex[18], et Dusicyon[19].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des espèces actuelle basée d'après Lindblad-Toh (2005) modifiée pour incorporer des découvertes récentes sur les espèces de Canis, de Vulpes, et de Lycalopex, et Dusicyon.
 </t>
         </is>
       </c>
